--- a/Assignments/Templates/Gantt Chart Template.xlsx
+++ b/Assignments/Templates/Gantt Chart Template.xlsx
@@ -772,7 +772,7 @@
     <xdr:ext cx="1666875" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -800,7 +800,7 @@
     <xdr:ext cx="14801850" cy="3067050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
